--- a/data/pca/factorExposure/factorExposure_2017-11-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02303916132380732</v>
+        <v>-0.01376788444652593</v>
       </c>
       <c r="C2">
-        <v>0.002898151898233916</v>
+        <v>0.03767273445382112</v>
       </c>
       <c r="D2">
-        <v>0.01103659103053048</v>
+        <v>-0.02841518894383077</v>
       </c>
       <c r="E2">
-        <v>0.009820906361119644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03333283133878875</v>
+      </c>
+      <c r="F2">
+        <v>-0.02780206780397596</v>
+      </c>
+      <c r="G2">
+        <v>0.01785444144176905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0125529535629515</v>
+        <v>-0.05329553458128582</v>
       </c>
       <c r="C3">
-        <v>-0.05470363950722152</v>
+        <v>0.07517811694209293</v>
       </c>
       <c r="D3">
-        <v>-0.004336837057087795</v>
+        <v>-0.01450821968527123</v>
       </c>
       <c r="E3">
-        <v>-0.004421433813071838</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09458873956981122</v>
+      </c>
+      <c r="F3">
+        <v>-0.04782227065191205</v>
+      </c>
+      <c r="G3">
+        <v>0.08263705431223545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02228080629706819</v>
+        <v>-0.05408524015780726</v>
       </c>
       <c r="C4">
-        <v>-0.01829656812037118</v>
+        <v>0.06530629664491969</v>
       </c>
       <c r="D4">
-        <v>0.057213772611822</v>
+        <v>-0.02266182977943972</v>
       </c>
       <c r="E4">
-        <v>-0.007694024158976352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.008748514968392688</v>
+      </c>
+      <c r="F4">
+        <v>-0.01505093831700546</v>
+      </c>
+      <c r="G4">
+        <v>0.0485260452672233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01504625253740729</v>
+        <v>-0.03136625261654687</v>
       </c>
       <c r="C6">
-        <v>-0.0271248280930978</v>
+        <v>0.05426565123213426</v>
       </c>
       <c r="D6">
-        <v>0.07768661925382603</v>
+        <v>-0.01630977677753321</v>
       </c>
       <c r="E6">
-        <v>0.01044567065219683</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.009406435687604416</v>
+      </c>
+      <c r="F6">
+        <v>-0.01518977483361882</v>
+      </c>
+      <c r="G6">
+        <v>0.02760221435225608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01043880378461034</v>
+        <v>-0.01929233306867517</v>
       </c>
       <c r="C7">
-        <v>-0.008432076368925059</v>
+        <v>0.03776568686682875</v>
       </c>
       <c r="D7">
-        <v>0.03999330809091405</v>
+        <v>-0.01244920878287917</v>
       </c>
       <c r="E7">
-        <v>-0.06370185419644855</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.009429788038025633</v>
+      </c>
+      <c r="F7">
+        <v>-0.009000460042461234</v>
+      </c>
+      <c r="G7">
+        <v>0.08030092879814993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0003719612981521966</v>
+        <v>0.002719797757279633</v>
       </c>
       <c r="C8">
-        <v>0.01084904575494973</v>
+        <v>0.014623627076393</v>
       </c>
       <c r="D8">
-        <v>0.01273262960219755</v>
+        <v>-0.003783360663118004</v>
       </c>
       <c r="E8">
-        <v>-0.004068228811377974</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01783596483359812</v>
+      </c>
+      <c r="F8">
+        <v>-0.01572113756299447</v>
+      </c>
+      <c r="G8">
+        <v>0.02744598138993899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01456503628235358</v>
+        <v>-0.02724351048688528</v>
       </c>
       <c r="C9">
-        <v>-0.01654718769959201</v>
+        <v>0.04355538421885845</v>
       </c>
       <c r="D9">
-        <v>0.03978761173120976</v>
+        <v>-0.0157677161914703</v>
       </c>
       <c r="E9">
-        <v>0.001136645069687606</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01209937164534445</v>
+      </c>
+      <c r="F9">
+        <v>-0.0185297510008255</v>
+      </c>
+      <c r="G9">
+        <v>0.03840761816637201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.00763755572671364</v>
+        <v>-0.09189278616078338</v>
       </c>
       <c r="C10">
-        <v>-0.1346032713650288</v>
+        <v>-0.1828069270593036</v>
       </c>
       <c r="D10">
-        <v>-0.1321634024628089</v>
+        <v>0.01849745562725661</v>
       </c>
       <c r="E10">
-        <v>-0.03028807871616122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01840070389549071</v>
+      </c>
+      <c r="F10">
+        <v>0.01567405745298709</v>
+      </c>
+      <c r="G10">
+        <v>0.03867265297461871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-4.059650195602099e-05</v>
+        <v>-0.03445817639720563</v>
       </c>
       <c r="C11">
-        <v>-0.005580706885974213</v>
+        <v>0.05378508380068584</v>
       </c>
       <c r="D11">
-        <v>0.04058941485364714</v>
+        <v>-0.001564457136161466</v>
       </c>
       <c r="E11">
-        <v>0.01466997737015041</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.003651143992121961</v>
+      </c>
+      <c r="F11">
+        <v>-0.02391353259715075</v>
+      </c>
+      <c r="G11">
+        <v>0.01942828821926256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005398457226190271</v>
+        <v>-0.03189890913992724</v>
       </c>
       <c r="C12">
-        <v>-0.01550206915964031</v>
+        <v>0.04561331718497601</v>
       </c>
       <c r="D12">
-        <v>0.04358435649160301</v>
+        <v>-0.005641404173876469</v>
       </c>
       <c r="E12">
-        <v>0.008437909845149692</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.005242375227251376</v>
+      </c>
+      <c r="F12">
+        <v>-0.006733620314193825</v>
+      </c>
+      <c r="G12">
+        <v>0.02203678744680589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02068025647847489</v>
+        <v>-0.01208559146545665</v>
       </c>
       <c r="C13">
-        <v>-0.009802276944427445</v>
+        <v>0.03269834931730017</v>
       </c>
       <c r="D13">
-        <v>0.0042748669272499</v>
+        <v>-0.02472735841562193</v>
       </c>
       <c r="E13">
-        <v>0.004999919301810235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03010316243746402</v>
+      </c>
+      <c r="F13">
+        <v>-0.01769809463389831</v>
+      </c>
+      <c r="G13">
+        <v>0.03449415028670406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006960252982760012</v>
+        <v>-0.007076989815281738</v>
       </c>
       <c r="C14">
-        <v>-0.0140174077237642</v>
+        <v>0.02574308316602515</v>
       </c>
       <c r="D14">
-        <v>0.01057751648398519</v>
+        <v>-0.008346019765031637</v>
       </c>
       <c r="E14">
-        <v>-0.01179565509346973</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.00458724412780863</v>
+      </c>
+      <c r="F14">
+        <v>-0.001871370915390813</v>
+      </c>
+      <c r="G14">
+        <v>0.03850085211387384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0005344592867928591</v>
+        <v>-0.03105141535364402</v>
       </c>
       <c r="C16">
-        <v>-0.01230316983045984</v>
+        <v>0.04384249540223819</v>
       </c>
       <c r="D16">
-        <v>0.0456473405095735</v>
+        <v>-0.001165908507049945</v>
       </c>
       <c r="E16">
-        <v>0.00982723033579852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.004429287030017099</v>
+      </c>
+      <c r="F16">
+        <v>-0.008915405768638402</v>
+      </c>
+      <c r="G16">
+        <v>0.02167030819196076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01203343062301532</v>
+        <v>-0.02846585195938455</v>
       </c>
       <c r="C19">
-        <v>-0.01910355622520406</v>
+        <v>0.05451772146768515</v>
       </c>
       <c r="D19">
-        <v>0.02270916185328887</v>
+        <v>-0.01573743647166293</v>
       </c>
       <c r="E19">
-        <v>-3.091565568122983e-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.04972846483176853</v>
+      </c>
+      <c r="F19">
+        <v>-0.03304960293331345</v>
+      </c>
+      <c r="G19">
+        <v>0.04462352843500476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.009704861521516532</v>
+        <v>-0.01098290140649805</v>
       </c>
       <c r="C20">
-        <v>-8.114366042868568e-05</v>
+        <v>0.03456513397139971</v>
       </c>
       <c r="D20">
-        <v>0.005914305118595524</v>
+        <v>-0.01313476918004411</v>
       </c>
       <c r="E20">
-        <v>-0.002912829313859638</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02482004777253848</v>
+      </c>
+      <c r="F20">
+        <v>-0.003175166953861147</v>
+      </c>
+      <c r="G20">
+        <v>0.03320621794748313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01343370331373675</v>
+        <v>-0.01200445665722207</v>
       </c>
       <c r="C21">
-        <v>-0.03313814692372578</v>
+        <v>0.03263547917958774</v>
       </c>
       <c r="D21">
-        <v>0.01143022274832904</v>
+        <v>-0.01619880661932312</v>
       </c>
       <c r="E21">
-        <v>-0.02019791342911426</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03375431344777357</v>
+      </c>
+      <c r="F21">
+        <v>-0.01559346884918646</v>
+      </c>
+      <c r="G21">
+        <v>0.05906148889941946</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004620949527382296</v>
+        <v>-0.02577530399409432</v>
       </c>
       <c r="C24">
-        <v>-0.007562181908708192</v>
+        <v>0.0468820800419402</v>
       </c>
       <c r="D24">
-        <v>0.04313709295744361</v>
+        <v>-0.006417681305817529</v>
       </c>
       <c r="E24">
-        <v>0.01125930121166469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.001978791603585849</v>
+      </c>
+      <c r="F24">
+        <v>-0.01954273768783569</v>
+      </c>
+      <c r="G24">
+        <v>0.02111653046023366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01089850988198249</v>
+        <v>-0.04245938410004195</v>
       </c>
       <c r="C25">
-        <v>-0.02424899952792495</v>
+        <v>0.05454350790126376</v>
       </c>
       <c r="D25">
-        <v>0.04084722899069165</v>
+        <v>-0.01033277119393873</v>
       </c>
       <c r="E25">
-        <v>0.01040615481587599</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.008742030669197522</v>
+      </c>
+      <c r="F25">
+        <v>-0.01508855734863456</v>
+      </c>
+      <c r="G25">
+        <v>0.02635943623866711</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02292204788659238</v>
+        <v>-0.008400507706229134</v>
       </c>
       <c r="C26">
-        <v>-0.008904711304097042</v>
+        <v>0.008623769802386489</v>
       </c>
       <c r="D26">
-        <v>-0.005073617755071304</v>
+        <v>-0.02369533789949624</v>
       </c>
       <c r="E26">
-        <v>-0.008101692659643793</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.01101481785363226</v>
+      </c>
+      <c r="F26">
+        <v>-0.004053099804722995</v>
+      </c>
+      <c r="G26">
+        <v>0.02860241223091908</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02425367280639799</v>
+        <v>-0.1181050736906519</v>
       </c>
       <c r="C28">
-        <v>-0.2025200050376288</v>
+        <v>-0.2257764210485476</v>
       </c>
       <c r="D28">
-        <v>-0.1910294932931546</v>
+        <v>0.00971858582482504</v>
       </c>
       <c r="E28">
-        <v>-0.04391192773618843</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.01012032796477035</v>
+      </c>
+      <c r="F28">
+        <v>0.009841259039940809</v>
+      </c>
+      <c r="G28">
+        <v>0.05507656208975983</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007101537425931382</v>
+        <v>-0.01251945560850987</v>
       </c>
       <c r="C29">
-        <v>-0.01862707431025658</v>
+        <v>0.0200245701513239</v>
       </c>
       <c r="D29">
-        <v>0.008349268713411977</v>
+        <v>-0.007026022124066456</v>
       </c>
       <c r="E29">
-        <v>-0.006557424904888944</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.004445923465159854</v>
+      </c>
+      <c r="F29">
+        <v>0.00746113868848462</v>
+      </c>
+      <c r="G29">
+        <v>0.02922859943271692</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02444725422248404</v>
+        <v>-0.04004220240974043</v>
       </c>
       <c r="C30">
-        <v>-0.0172322868178988</v>
+        <v>0.07078444003659022</v>
       </c>
       <c r="D30">
-        <v>0.0584289915954369</v>
+        <v>-0.0271492512681465</v>
       </c>
       <c r="E30">
-        <v>0.07053461614925327</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02848478993591212</v>
+      </c>
+      <c r="F30">
+        <v>-0.0434785634551218</v>
+      </c>
+      <c r="G30">
+        <v>0.00287249757162726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.006225494252612945</v>
+        <v>-0.04369364055493009</v>
       </c>
       <c r="C31">
-        <v>-0.0452342283948424</v>
+        <v>0.03142626642292295</v>
       </c>
       <c r="D31">
-        <v>0.03316834874890178</v>
+        <v>-0.002953667290352941</v>
       </c>
       <c r="E31">
-        <v>-0.002000078044678881</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.008543683759126716</v>
+      </c>
+      <c r="F31">
+        <v>0.03641409513233942</v>
+      </c>
+      <c r="G31">
+        <v>0.02619002609858472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007714216617000809</v>
+        <v>-0.006325729294790797</v>
       </c>
       <c r="C32">
-        <v>-0.009433366137397849</v>
+        <v>0.03200149290614212</v>
       </c>
       <c r="D32">
-        <v>0.006171133537085589</v>
+        <v>0.004914749352023543</v>
       </c>
       <c r="E32">
-        <v>-0.0242543910440454</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01957228455956379</v>
+      </c>
+      <c r="F32">
+        <v>-0.0653600556244749</v>
+      </c>
+      <c r="G32">
+        <v>0.04929652715550289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01199164261306983</v>
+        <v>-0.02839430781487219</v>
       </c>
       <c r="C33">
-        <v>-0.02486310145691759</v>
+        <v>0.04995175671326188</v>
       </c>
       <c r="D33">
-        <v>0.01594387508327431</v>
+        <v>-0.01414849697043922</v>
       </c>
       <c r="E33">
-        <v>0.02800827726447251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02580675254332001</v>
+      </c>
+      <c r="F33">
+        <v>-0.02353723069624267</v>
+      </c>
+      <c r="G33">
+        <v>0.03119472809019342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.005300538033270636</v>
+        <v>-0.04438495613925732</v>
       </c>
       <c r="C34">
-        <v>-0.0194449598828558</v>
+        <v>0.05572072902299529</v>
       </c>
       <c r="D34">
-        <v>0.04662746555718478</v>
+        <v>0.005688607391093264</v>
       </c>
       <c r="E34">
-        <v>0.001602366667573672</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.007693094824849348</v>
+      </c>
+      <c r="F34">
+        <v>-0.02271674478587752</v>
+      </c>
+      <c r="G34">
+        <v>0.03247718559513248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01164024123095742</v>
+        <v>-0.01058910089136396</v>
       </c>
       <c r="C36">
-        <v>-0.01871201396928522</v>
+        <v>0.006764593330348478</v>
       </c>
       <c r="D36">
-        <v>-0.001556457984630547</v>
+        <v>-0.01125333409732944</v>
       </c>
       <c r="E36">
-        <v>-0.001814734277924112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.002663112920675509</v>
+      </c>
+      <c r="F36">
+        <v>-0.0004826270162595885</v>
+      </c>
+      <c r="G36">
+        <v>0.02160125398970723</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006770347224751472</v>
+        <v>-0.03313670835434693</v>
       </c>
       <c r="C38">
-        <v>-0.02584943473234139</v>
+        <v>0.02591984698349776</v>
       </c>
       <c r="D38">
-        <v>0.01439880507809898</v>
+        <v>0.008129068432145399</v>
       </c>
       <c r="E38">
-        <v>0.001442318354368586</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.005579666596478705</v>
+      </c>
+      <c r="F38">
+        <v>0.0004374416782883563</v>
+      </c>
+      <c r="G38">
+        <v>0.03021484284431922</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.00559449842021401</v>
+        <v>-0.03134086191375908</v>
       </c>
       <c r="C39">
-        <v>0.01617735973987922</v>
+        <v>0.08237516675681932</v>
       </c>
       <c r="D39">
-        <v>0.09189854605277248</v>
+        <v>-0.0118065867868821</v>
       </c>
       <c r="E39">
-        <v>0.02024307591855893</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0205933116827612</v>
+      </c>
+      <c r="F39">
+        <v>-0.03824992907305511</v>
+      </c>
+      <c r="G39">
+        <v>0.02559279327729509</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01061162117262643</v>
+        <v>-0.02022531038084115</v>
       </c>
       <c r="C40">
-        <v>-0.01690949832362413</v>
+        <v>0.02986249516852998</v>
       </c>
       <c r="D40">
-        <v>0.03703560561870661</v>
+        <v>-0.01308690013623829</v>
       </c>
       <c r="E40">
-        <v>0.01767419303654317</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02416610494082651</v>
+      </c>
+      <c r="F40">
+        <v>-0.01721732169934994</v>
+      </c>
+      <c r="G40">
+        <v>0.02499357181817331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005004321790224746</v>
+        <v>-0.01162813881917615</v>
       </c>
       <c r="C41">
-        <v>-0.02034034978356699</v>
+        <v>-0.001570870440405458</v>
       </c>
       <c r="D41">
-        <v>-0.01041359723504433</v>
+        <v>-0.003539280462441805</v>
       </c>
       <c r="E41">
-        <v>-0.003491504843166069</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.003315619093543416</v>
+      </c>
+      <c r="F41">
+        <v>-0.001922664837527603</v>
+      </c>
+      <c r="G41">
+        <v>0.01521372343187136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09339477522644557</v>
+        <v>-0.02502191198321896</v>
       </c>
       <c r="C42">
-        <v>-0.03371300885908611</v>
+        <v>0.05295932443065759</v>
       </c>
       <c r="D42">
-        <v>0.2361811652951081</v>
+        <v>-0.1005304878739312</v>
       </c>
       <c r="E42">
-        <v>0.2931114738114659</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04676106952003142</v>
+      </c>
+      <c r="F42">
+        <v>0.09195596698480425</v>
+      </c>
+      <c r="G42">
+        <v>-0.1957463808882139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.006082258315642636</v>
+        <v>-0.02793446567334704</v>
       </c>
       <c r="C43">
-        <v>-0.02498551060196395</v>
+        <v>0.008294276506155744</v>
       </c>
       <c r="D43">
-        <v>-0.01242991483013783</v>
+        <v>-0.003813135156301309</v>
       </c>
       <c r="E43">
-        <v>0.0009980695500279918</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.005403542195152846</v>
+      </c>
+      <c r="F43">
+        <v>0.0004456641083377578</v>
+      </c>
+      <c r="G43">
+        <v>0.02078024447005991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002893725876986998</v>
+        <v>-0.01576431663426491</v>
       </c>
       <c r="C44">
-        <v>0.001529658318425349</v>
+        <v>0.04636544755019713</v>
       </c>
       <c r="D44">
-        <v>0.01696330476630093</v>
+        <v>-0.006310384188215641</v>
       </c>
       <c r="E44">
-        <v>-0.002051923056668022</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.02025946537988869</v>
+      </c>
+      <c r="F44">
+        <v>-0.02275115995094324</v>
+      </c>
+      <c r="G44">
+        <v>0.03947283190322431</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01025929056175201</v>
+        <v>-0.003022176322327645</v>
       </c>
       <c r="C46">
-        <v>-0.01549017920747794</v>
+        <v>0.01607405340880211</v>
       </c>
       <c r="D46">
-        <v>0.01153888849022772</v>
+        <v>-0.01159092794284349</v>
       </c>
       <c r="E46">
-        <v>0.002247338501940662</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0007977204905987694</v>
+      </c>
+      <c r="F46">
+        <v>0.009430267012674194</v>
+      </c>
+      <c r="G46">
+        <v>0.02535634539694151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0006375540093837891</v>
+        <v>-0.07380041159758713</v>
       </c>
       <c r="C47">
-        <v>-0.06553387729271533</v>
+        <v>0.06482744468209117</v>
       </c>
       <c r="D47">
-        <v>0.04441789941355649</v>
+        <v>0.00532077575810396</v>
       </c>
       <c r="E47">
-        <v>0.0109761340095917</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01492204517945689</v>
+      </c>
+      <c r="F47">
+        <v>0.06242559246122688</v>
+      </c>
+      <c r="G47">
+        <v>0.02382348194983998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002406979666346777</v>
+        <v>-0.0190397203609461</v>
       </c>
       <c r="C48">
-        <v>-0.0259082757904013</v>
+        <v>0.01014404526195875</v>
       </c>
       <c r="D48">
-        <v>0.006731505977156554</v>
+        <v>-0.0008131404167429374</v>
       </c>
       <c r="E48">
-        <v>0.001757041065438823</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.001235267450098184</v>
+      </c>
+      <c r="F48">
+        <v>0.01297081226346066</v>
+      </c>
+      <c r="G48">
+        <v>0.02419944163412381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.001679619820201293</v>
+        <v>-0.07864629786527748</v>
       </c>
       <c r="C50">
-        <v>-0.05615584150504571</v>
+        <v>0.06625094866224045</v>
       </c>
       <c r="D50">
-        <v>0.05288444976124877</v>
+        <v>0.004323439825198857</v>
       </c>
       <c r="E50">
-        <v>-0.01437219515657315</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01531353329136218</v>
+      </c>
+      <c r="F50">
+        <v>0.05791706404259148</v>
+      </c>
+      <c r="G50">
+        <v>0.04204915172729397</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006700003468928454</v>
+        <v>-0.01119541795206082</v>
       </c>
       <c r="C51">
-        <v>-0.01651506097650641</v>
+        <v>0.02740250400268135</v>
       </c>
       <c r="D51">
-        <v>-0.01680851718094979</v>
+        <v>-0.008888090375497896</v>
       </c>
       <c r="E51">
-        <v>-0.01320207311334499</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01061069004782871</v>
+      </c>
+      <c r="F51">
+        <v>-0.02757071625369886</v>
+      </c>
+      <c r="G51">
+        <v>0.05005852223011723</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.003154364648861959</v>
+        <v>-0.09369356713619227</v>
       </c>
       <c r="C53">
-        <v>-0.08802768177462697</v>
+        <v>0.07932267103116258</v>
       </c>
       <c r="D53">
-        <v>0.0929758152740178</v>
+        <v>0.006019439293735083</v>
       </c>
       <c r="E53">
-        <v>0.01267804915028659</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04134758580683576</v>
+      </c>
+      <c r="F53">
+        <v>0.06382908162586806</v>
+      </c>
+      <c r="G53">
+        <v>0.02027809152631196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.002000552607315575</v>
+        <v>-0.02878550187364545</v>
       </c>
       <c r="C54">
-        <v>-0.03620734087025843</v>
+        <v>0.005595124347651191</v>
       </c>
       <c r="D54">
-        <v>-0.01411231503738153</v>
+        <v>0.003862995477893378</v>
       </c>
       <c r="E54">
-        <v>-0.01480745091857861</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.005695756671214077</v>
+      </c>
+      <c r="F54">
+        <v>0.003090261208835749</v>
+      </c>
+      <c r="G54">
+        <v>0.03200066573746207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0009214753865436027</v>
+        <v>-0.07221261989430369</v>
       </c>
       <c r="C55">
-        <v>-0.06317678325200493</v>
+        <v>0.07334989322552056</v>
       </c>
       <c r="D55">
-        <v>0.08648910989564214</v>
+        <v>0.004896882157218219</v>
       </c>
       <c r="E55">
-        <v>0.02285075034044535</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02840848182223551</v>
+      </c>
+      <c r="F55">
+        <v>0.06174303813586862</v>
+      </c>
+      <c r="G55">
+        <v>0.00781224957165638</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.000481511542775696</v>
+        <v>-0.1441653889637876</v>
       </c>
       <c r="C56">
-        <v>-0.1144093017136087</v>
+        <v>0.1031695634713787</v>
       </c>
       <c r="D56">
-        <v>0.1266735304531996</v>
+        <v>0.01413504430279056</v>
       </c>
       <c r="E56">
-        <v>0.02974477433634581</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04006758043809353</v>
+      </c>
+      <c r="F56">
+        <v>0.09979614569971441</v>
+      </c>
+      <c r="G56">
+        <v>-0.0005950662390023095</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02284507837230554</v>
+        <v>-0.01237915094120277</v>
       </c>
       <c r="C57">
-        <v>-0.01616652389727289</v>
+        <v>0.01170531755689026</v>
       </c>
       <c r="D57">
-        <v>0.04039858507565285</v>
+        <v>-0.02370491883194695</v>
       </c>
       <c r="E57">
-        <v>0.01140271943267033</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02974625703668441</v>
+      </c>
+      <c r="F57">
+        <v>-0.0130018020352238</v>
+      </c>
+      <c r="G57">
+        <v>0.02337120933929277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.008391964147974777</v>
+        <v>-0.06720264903620891</v>
       </c>
       <c r="C58">
-        <v>-0.04486542488699152</v>
+        <v>0.0618638039319572</v>
       </c>
       <c r="D58">
-        <v>0.0620299338589837</v>
+        <v>-0.02119161459336725</v>
       </c>
       <c r="E58">
-        <v>0.150633684779146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9324588455461809</v>
+      </c>
+      <c r="F58">
+        <v>0.2705578101512095</v>
+      </c>
+      <c r="G58">
+        <v>0.01582518219277824</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.0211611782711035</v>
+        <v>-0.1536969425580023</v>
       </c>
       <c r="C59">
-        <v>-0.2170105686996021</v>
+        <v>-0.2108875470484195</v>
       </c>
       <c r="D59">
-        <v>-0.198044758166351</v>
+        <v>0.0160694998831659</v>
       </c>
       <c r="E59">
-        <v>-0.01921779445066142</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01620370715761905</v>
+      </c>
+      <c r="F59">
+        <v>-0.009742767793650573</v>
+      </c>
+      <c r="G59">
+        <v>0.02160805065862722</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02727429002667891</v>
+        <v>-0.2909717163047421</v>
       </c>
       <c r="C60">
-        <v>-0.1629444206063824</v>
+        <v>0.09267970958828826</v>
       </c>
       <c r="D60">
-        <v>0.06848000200230192</v>
+        <v>-0.008150801947570284</v>
       </c>
       <c r="E60">
-        <v>0.06067643224225312</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.0286101967551646</v>
+      </c>
+      <c r="F60">
+        <v>-0.3852813767520877</v>
+      </c>
+      <c r="G60">
+        <v>-0.07305081646937137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002750546420506384</v>
+        <v>-0.03185814360395023</v>
       </c>
       <c r="C61">
-        <v>-0.009590767265939014</v>
+        <v>0.06337580824881256</v>
       </c>
       <c r="D61">
-        <v>0.06317784200241248</v>
+        <v>-0.005150813053325419</v>
       </c>
       <c r="E61">
-        <v>0.0146371184412029</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01262837174900563</v>
+      </c>
+      <c r="F61">
+        <v>-0.02497378501253698</v>
+      </c>
+      <c r="G61">
+        <v>0.02551985937733431</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.00748118599028119</v>
+        <v>-0.01403394513981997</v>
       </c>
       <c r="C63">
-        <v>-0.01305124056282787</v>
+        <v>0.02664773441627066</v>
       </c>
       <c r="D63">
-        <v>0.01211658818915777</v>
+        <v>-0.00796577054783767</v>
       </c>
       <c r="E63">
-        <v>-0.002916729897029047</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.006948458122125696</v>
+      </c>
+      <c r="F63">
+        <v>0.01145602870924576</v>
+      </c>
+      <c r="G63">
+        <v>0.03156153338741396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.005978299977547879</v>
+        <v>-0.0469747024292287</v>
       </c>
       <c r="C64">
-        <v>-0.0296358585515987</v>
+        <v>0.03663111007590735</v>
       </c>
       <c r="D64">
-        <v>0.06052589099630724</v>
+        <v>-0.00465599145912482</v>
       </c>
       <c r="E64">
-        <v>0.01986769533730964</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.006052966165611974</v>
+      </c>
+      <c r="F64">
+        <v>-0.01134361712159071</v>
+      </c>
+      <c r="G64">
+        <v>0.02104799655225009</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0173831187033495</v>
+        <v>-0.08135228466803361</v>
       </c>
       <c r="C65">
-        <v>-0.03453495181639704</v>
+        <v>0.06775586084500351</v>
       </c>
       <c r="D65">
-        <v>0.09014147853571623</v>
+        <v>-0.01521518746754695</v>
       </c>
       <c r="E65">
-        <v>0.01575450214722363</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.009654852567736053</v>
+      </c>
+      <c r="F65">
+        <v>-0.03920692738541538</v>
+      </c>
+      <c r="G65">
+        <v>0.01368451297789016</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005218779954435624</v>
+        <v>-0.05232898565002677</v>
       </c>
       <c r="C66">
-        <v>0.004864636225556789</v>
+        <v>0.1158282019983665</v>
       </c>
       <c r="D66">
-        <v>0.1115215806159397</v>
+        <v>-0.01120836549380532</v>
       </c>
       <c r="E66">
-        <v>0.04054131708896053</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02168711923689648</v>
+      </c>
+      <c r="F66">
+        <v>-0.04852521873011736</v>
+      </c>
+      <c r="G66">
+        <v>0.01725402054742031</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001984511710307574</v>
+        <v>-0.05660589765137553</v>
       </c>
       <c r="C67">
-        <v>-0.0445664238036121</v>
+        <v>0.03040002908254118</v>
       </c>
       <c r="D67">
-        <v>0.01446648198754383</v>
+        <v>0.006614164294463306</v>
       </c>
       <c r="E67">
-        <v>0.004068717049328938</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.001571820208988963</v>
+      </c>
+      <c r="F67">
+        <v>0.001819863559282076</v>
+      </c>
+      <c r="G67">
+        <v>0.02876327004174432</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.03814573535908818</v>
+        <v>-0.1396289580276227</v>
       </c>
       <c r="C68">
-        <v>-0.1832069192146289</v>
+        <v>-0.2707153521520698</v>
       </c>
       <c r="D68">
-        <v>-0.1822741190033876</v>
+        <v>-0.001587045534179022</v>
       </c>
       <c r="E68">
-        <v>-0.01932276234766597</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.02039088176610261</v>
+      </c>
+      <c r="F68">
+        <v>0.0190874531858245</v>
+      </c>
+      <c r="G68">
+        <v>0.01750300883674822</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003412104275260011</v>
+        <v>-0.07752320975057302</v>
       </c>
       <c r="C69">
-        <v>-0.05106189182429726</v>
+        <v>0.06509371942785375</v>
       </c>
       <c r="D69">
-        <v>0.04882892102412217</v>
+        <v>0.009524541526439787</v>
       </c>
       <c r="E69">
-        <v>0.007229256453596691</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.03141429925356869</v>
+      </c>
+      <c r="F69">
+        <v>0.04019740353505331</v>
+      </c>
+      <c r="G69">
+        <v>0.02452083200631736</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02657611878357868</v>
+        <v>-0.1331294148544429</v>
       </c>
       <c r="C71">
-        <v>-0.1651095592227796</v>
+        <v>-0.2261172239402725</v>
       </c>
       <c r="D71">
-        <v>-0.1596625031728995</v>
+        <v>0.006978856804839299</v>
       </c>
       <c r="E71">
-        <v>-0.02802175704123802</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02723948144975701</v>
+      </c>
+      <c r="F71">
+        <v>0.02048759871275924</v>
+      </c>
+      <c r="G71">
+        <v>0.03419548170664909</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002938429474164488</v>
+        <v>-0.08361875528776597</v>
       </c>
       <c r="C72">
-        <v>-0.06588880683741768</v>
+        <v>0.0779498341277062</v>
       </c>
       <c r="D72">
-        <v>0.1367980685293761</v>
+        <v>0.009135116828352751</v>
       </c>
       <c r="E72">
-        <v>0.05270363160907029</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01101389745740637</v>
+      </c>
+      <c r="F72">
+        <v>-0.04149105229571475</v>
+      </c>
+      <c r="G72">
+        <v>0.001428417701355867</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.03974682399152564</v>
+        <v>-0.4004673335789697</v>
       </c>
       <c r="C73">
-        <v>-0.1923362507692309</v>
+        <v>0.110068743659332</v>
       </c>
       <c r="D73">
-        <v>0.1221776464955193</v>
+        <v>-0.01302846456242377</v>
       </c>
       <c r="E73">
-        <v>0.1329560590898459</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.08403946039671413</v>
+      </c>
+      <c r="F73">
+        <v>-0.538811129183668</v>
+      </c>
+      <c r="G73">
+        <v>-0.1187070673964362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.0008961511420164237</v>
+        <v>-0.1155819105579634</v>
       </c>
       <c r="C74">
-        <v>-0.1037002515022081</v>
+        <v>0.1184075046187872</v>
       </c>
       <c r="D74">
-        <v>0.1227298190175132</v>
+        <v>0.01067474688982926</v>
       </c>
       <c r="E74">
-        <v>0.03710622413930228</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.03659482957186291</v>
+      </c>
+      <c r="F74">
+        <v>0.06935281778191535</v>
+      </c>
+      <c r="G74">
+        <v>0.02123507756731007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.0003197276223558208</v>
+        <v>-0.2595666260474096</v>
       </c>
       <c r="C75">
-        <v>-0.2360761875939737</v>
+        <v>0.1507049558024703</v>
       </c>
       <c r="D75">
-        <v>0.2140143498764529</v>
+        <v>0.03212628648675847</v>
       </c>
       <c r="E75">
-        <v>0.07216979476649453</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.07909168185404163</v>
+      </c>
+      <c r="F75">
+        <v>0.2115734239396986</v>
+      </c>
+      <c r="G75">
+        <v>-0.03225358466634705</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.005468609321915489</v>
+        <v>-0.1347681813171423</v>
       </c>
       <c r="C76">
-        <v>-0.1819754543575842</v>
+        <v>0.1237539342637439</v>
       </c>
       <c r="D76">
-        <v>0.1983390732667866</v>
+        <v>0.02223559122245848</v>
       </c>
       <c r="E76">
-        <v>0.0351346762576055</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0735484437982357</v>
+      </c>
+      <c r="F76">
+        <v>0.1294597063957901</v>
+      </c>
+      <c r="G76">
+        <v>0.009404268979544177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01243934812370159</v>
+        <v>-0.06095208730295471</v>
       </c>
       <c r="C77">
-        <v>-0.01854429752054543</v>
+        <v>0.06026570169929285</v>
       </c>
       <c r="D77">
-        <v>0.06023765341998958</v>
+        <v>-0.0124547405039037</v>
       </c>
       <c r="E77">
-        <v>0.01426486503360873</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04998184630835104</v>
+      </c>
+      <c r="F77">
+        <v>-0.01183842774204834</v>
+      </c>
+      <c r="G77">
+        <v>0.05276024019000429</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004629997549664095</v>
+        <v>-0.04087149302034943</v>
       </c>
       <c r="C78">
-        <v>-0.01707812635783775</v>
+        <v>0.0516520893394594</v>
       </c>
       <c r="D78">
-        <v>0.06318698145349012</v>
+        <v>-0.005564736247424339</v>
       </c>
       <c r="E78">
-        <v>0.01467119333194348</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02316622911550421</v>
+      </c>
+      <c r="F78">
+        <v>-0.03576869681300025</v>
+      </c>
+      <c r="G78">
+        <v>0.0365784491711614</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01490361228313828</v>
+        <v>-0.06345112735943467</v>
       </c>
       <c r="C80">
-        <v>-0.1674271962767526</v>
+        <v>0.06768822807980536</v>
       </c>
       <c r="D80">
-        <v>0.3007884426087469</v>
+        <v>-0.01157500248281069</v>
       </c>
       <c r="E80">
-        <v>-0.887993301742476</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.05158380661954624</v>
+      </c>
+      <c r="F80">
+        <v>-0.004304252905947401</v>
+      </c>
+      <c r="G80">
+        <v>0.9103612065708533</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.0006641836901193384</v>
+        <v>-0.1435128042878971</v>
       </c>
       <c r="C81">
-        <v>-0.1527423210824259</v>
+        <v>0.09568539231996966</v>
       </c>
       <c r="D81">
-        <v>0.1438433290957774</v>
+        <v>0.01625972568642978</v>
       </c>
       <c r="E81">
-        <v>0.03683254252394694</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04734226326689092</v>
+      </c>
+      <c r="F81">
+        <v>0.1345928895474393</v>
+      </c>
+      <c r="G81">
+        <v>0.01519497525401775</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.05147590329605866</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03520093698293445</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.003100592153721031</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01770484163049241</v>
+      </c>
+      <c r="F82">
+        <v>0.003057157935987233</v>
+      </c>
+      <c r="G82">
+        <v>-0.01010503345809466</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006424989257120716</v>
+        <v>-0.02769473213485352</v>
       </c>
       <c r="C83">
-        <v>-0.0289278273414019</v>
+        <v>0.02074084488665726</v>
       </c>
       <c r="D83">
-        <v>0.02022719951294973</v>
+        <v>-0.00515900766917364</v>
       </c>
       <c r="E83">
-        <v>0.01018953806433241</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02782036907765346</v>
+      </c>
+      <c r="F83">
+        <v>-0.0191857460971689</v>
+      </c>
+      <c r="G83">
+        <v>0.0253373219818918</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.008083815511605636</v>
+        <v>-0.2375817842589314</v>
       </c>
       <c r="C85">
-        <v>-0.1884810061066612</v>
+        <v>0.1547274813034446</v>
       </c>
       <c r="D85">
-        <v>0.2235746370238708</v>
+        <v>0.02097847410328946</v>
       </c>
       <c r="E85">
-        <v>0.08270380395226369</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1277636842282605</v>
+      </c>
+      <c r="F85">
+        <v>0.1955196411992924</v>
+      </c>
+      <c r="G85">
+        <v>-0.05621610437793435</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.005019562751845821</v>
+        <v>-0.010322430277883</v>
       </c>
       <c r="C86">
-        <v>-0.00805703963106421</v>
+        <v>0.02113800330884364</v>
       </c>
       <c r="D86">
-        <v>0.005316100363144556</v>
+        <v>-0.009666905744766046</v>
       </c>
       <c r="E86">
-        <v>0.02008865133891468</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03994167328107408</v>
+      </c>
+      <c r="F86">
+        <v>-0.01400187072590382</v>
+      </c>
+      <c r="G86">
+        <v>0.05128808543573739</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.005976244916907208</v>
+        <v>-0.01258036051186335</v>
       </c>
       <c r="C87">
-        <v>-0.004165829359507313</v>
+        <v>0.02701355764429627</v>
       </c>
       <c r="D87">
-        <v>0.02823773420307369</v>
+        <v>-0.01174194184057296</v>
       </c>
       <c r="E87">
-        <v>0.005703140851177242</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08619347376746134</v>
+      </c>
+      <c r="F87">
+        <v>-0.0517662701787877</v>
+      </c>
+      <c r="G87">
+        <v>0.04823842576940522</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02573046557367495</v>
+        <v>-0.08655408715759913</v>
       </c>
       <c r="C88">
-        <v>-0.04605541389424811</v>
+        <v>0.06069241711493206</v>
       </c>
       <c r="D88">
-        <v>0.01226703715150855</v>
+        <v>-0.02119427185130724</v>
       </c>
       <c r="E88">
-        <v>0.005805540993548913</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.0150155070424441</v>
+      </c>
+      <c r="F88">
+        <v>0.01288929397033725</v>
+      </c>
+      <c r="G88">
+        <v>0.02381988549512572</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05012296893203969</v>
+        <v>-0.2239898257959224</v>
       </c>
       <c r="C89">
-        <v>-0.3153609532390895</v>
+        <v>-0.3654981311692843</v>
       </c>
       <c r="D89">
-        <v>-0.2926491228690529</v>
+        <v>0.008033061472389243</v>
       </c>
       <c r="E89">
-        <v>-0.01937034770917705</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01636410109454341</v>
+      </c>
+      <c r="F89">
+        <v>0.03526023333546763</v>
+      </c>
+      <c r="G89">
+        <v>0.02757083034506348</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.03784740198804288</v>
+        <v>-0.1930981782487129</v>
       </c>
       <c r="C90">
-        <v>-0.2310889753948473</v>
+        <v>-0.3336733419115149</v>
       </c>
       <c r="D90">
-        <v>-0.2625349415629965</v>
+        <v>0.01173042106681083</v>
       </c>
       <c r="E90">
-        <v>-0.0108793362468905</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.004921126924662312</v>
+      </c>
+      <c r="F90">
+        <v>0.04523679347773661</v>
+      </c>
+      <c r="G90">
+        <v>-0.006129821729764258</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.001012071868769146</v>
+        <v>-0.2061198263721822</v>
       </c>
       <c r="C91">
-        <v>-0.207887433986629</v>
+        <v>0.1392459658586829</v>
       </c>
       <c r="D91">
-        <v>0.2119019856733976</v>
+        <v>0.02514635422133688</v>
       </c>
       <c r="E91">
-        <v>0.0652351488997613</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.09145800869030626</v>
+      </c>
+      <c r="F91">
+        <v>0.1848560639572271</v>
+      </c>
+      <c r="G91">
+        <v>-0.005308835354624791</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.004754812900977842</v>
+        <v>-0.2117570182606917</v>
       </c>
       <c r="C92">
-        <v>-0.3555624444862482</v>
+        <v>-0.2657784023950308</v>
       </c>
       <c r="D92">
-        <v>-0.1736903901904422</v>
+        <v>0.05351232478010106</v>
       </c>
       <c r="E92">
-        <v>-4.738336138979841e-05</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.008822404248670626</v>
+      </c>
+      <c r="F92">
+        <v>0.1287204287545738</v>
+      </c>
+      <c r="G92">
+        <v>0.05960218087910406</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03609195447521134</v>
+        <v>-0.2186633153588498</v>
       </c>
       <c r="C93">
-        <v>-0.2808837938998136</v>
+        <v>-0.3308995749232689</v>
       </c>
       <c r="D93">
-        <v>-0.2714182352637021</v>
+        <v>0.01849863102897346</v>
       </c>
       <c r="E93">
-        <v>0.009391243180700547</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.005553863971227538</v>
+      </c>
+      <c r="F93">
+        <v>0.02394488633704899</v>
+      </c>
+      <c r="G93">
+        <v>-0.001341885154576521</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01956071369042435</v>
+        <v>-0.2790916735174841</v>
       </c>
       <c r="C94">
-        <v>-0.2510865606033384</v>
+        <v>0.1633860110679898</v>
       </c>
       <c r="D94">
-        <v>0.2067004635872971</v>
+        <v>0.01506338707228826</v>
       </c>
       <c r="E94">
-        <v>0.1179475957956862</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1304519017686472</v>
+      </c>
+      <c r="F94">
+        <v>0.3949661471561549</v>
+      </c>
+      <c r="G94">
+        <v>-0.1665864329725493</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006416700424316055</v>
+        <v>-0.08259594567449449</v>
       </c>
       <c r="C95">
-        <v>-0.044853389371454</v>
+        <v>0.07684904172098025</v>
       </c>
       <c r="D95">
-        <v>0.05801779993685685</v>
+        <v>0.007179984755437813</v>
       </c>
       <c r="E95">
-        <v>0.1126823436391682</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.08905232981897918</v>
+      </c>
+      <c r="F95">
+        <v>-0.1509372016717707</v>
+      </c>
+      <c r="G95">
+        <v>-0.05007602979679023</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.002604757343345888</v>
+        <v>-0.2088074524058429</v>
       </c>
       <c r="C98">
-        <v>-0.1578429408089099</v>
+        <v>0.0506099628886962</v>
       </c>
       <c r="D98">
-        <v>0.08233165896993332</v>
+        <v>0.01638244418139891</v>
       </c>
       <c r="E98">
-        <v>0.07823756132982596</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.07902475639899491</v>
+      </c>
+      <c r="F98">
+        <v>-0.2438025051316173</v>
+      </c>
+      <c r="G98">
+        <v>-0.03017838978415458</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006752954523418586</v>
+        <v>-0.01331635319205776</v>
       </c>
       <c r="C101">
-        <v>-0.02268897439135223</v>
+        <v>0.02060048350465694</v>
       </c>
       <c r="D101">
-        <v>0.01289210010393345</v>
+        <v>-0.006846360485178234</v>
       </c>
       <c r="E101">
-        <v>-0.003831155695916278</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.002844416927260738</v>
+      </c>
+      <c r="F101">
+        <v>0.01899330432403564</v>
+      </c>
+      <c r="G101">
+        <v>0.0310658104080758</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01363958883203504</v>
+        <v>-0.123626368058721</v>
       </c>
       <c r="C102">
-        <v>-0.1231410341947523</v>
+        <v>0.08287833890083461</v>
       </c>
       <c r="D102">
-        <v>0.1098972875137502</v>
+        <v>0.0002081915724756263</v>
       </c>
       <c r="E102">
-        <v>0.03632078270018319</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03897458549348249</v>
+      </c>
+      <c r="F102">
+        <v>0.06051805496450518</v>
+      </c>
+      <c r="G102">
+        <v>-0.007238232276478371</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.002028327325308455</v>
+        <v>-0.004073277842740319</v>
       </c>
       <c r="C103">
-        <v>-0.01696051594382398</v>
+        <v>0.00545166836222939</v>
       </c>
       <c r="D103">
-        <v>0.02718735320896187</v>
+        <v>-0.0007096681948787929</v>
       </c>
       <c r="E103">
-        <v>-0.00959747712461396</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.0006999281651671967</v>
+      </c>
+      <c r="F103">
+        <v>0.009307107051857538</v>
+      </c>
+      <c r="G103">
+        <v>0.01843061602498407</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9862277413414929</v>
+        <v>-0.03888539164408711</v>
       </c>
       <c r="C104">
-        <v>0.09282931064221442</v>
+        <v>-0.04274260583911724</v>
       </c>
       <c r="D104">
-        <v>0.003814607831361547</v>
+        <v>-0.9862632443386622</v>
       </c>
       <c r="E104">
-        <v>-0.02407430274412746</v>
+        <v>0.04764458462864549</v>
+      </c>
+      <c r="F104">
+        <v>0.03763940009695477</v>
+      </c>
+      <c r="G104">
+        <v>-0.003887565830646443</v>
       </c>
     </row>
   </sheetData>
